--- a/console/Networking/diskChExcel/diskMixins/components/disk_createSnapshot.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/components/disk_createSnapshot.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -41,17 +41,6 @@
     <t>disk_createSnapshot_i18nKey_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>为了保证快照能完整的捕获磁盘数据内容，建议避开业务高峰，制作快照前，停止数据读写操作。</t>
-    </r>
-  </si>
-  <si>
     <t>To guarantee snapshot can completely capture the disk data, it is recommended to avoid business peak and stop data read/write operation before creating snapshot.</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     </r>
   </si>
   <si>
-    <t>'The snapshot encryption and the source hard disk have the same features'</t>
-  </si>
-  <si>
     <t>disk_createSnapshot_i18nKey_4</t>
   </si>
   <si>
@@ -189,14 +175,90 @@
     <t>disk_createSnapshot_i18nKey_7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述不可为空，只支持中文、数字、大小写字母及英文下划线</t>
+    <t>disk_createSnapshot_i18nKey_8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>disk_createSnapshot_i18nKey_9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>disk_createSnapshot_i18nKey_10</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不可为空，只支持中文、数字、大小写字母、英文下划线</t>
     </r>
     <r>
       <rPr>
@@ -214,6 +276,24 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
       <t>，且不能超过</t>
     </r>
     <r>
@@ -223,6 +303,53 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'The name cannot be null; it only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
+  </si>
+  <si>
+    <t>disk_createSnapshot_i18nKey_11</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>256</t>
     </r>
     <r>
@@ -232,222 +359,91 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'Description cannot exceed 256 characters'</t>
+  </si>
+  <si>
+    <t>Must provide a name, only support Chinese, numbers, upper case and lower case letters, English underline “_” and  line-through “-”, with at most 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了保证快照能完整的捕获磁盘数据内容，建议避开业务高峰，制作快照前，停止数据读写操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The snapshot encryption feature is the same as  the origin cloud disk '</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不可为空，支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
       <t>字符</t>
     </r>
-  </si>
-  <si>
-    <t>The description cannot be null and only supports Chinese characters, numbers, upper case and lower case letters, English underline “_”, and cannot exceed 256 characters</t>
-  </si>
-  <si>
-    <t>disk_createSnapshot_i18nKey_8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>消</t>
-    </r>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>disk_createSnapshot_i18nKey_9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>确</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>定</t>
-    </r>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>disk_createSnapshot_i18nKey_10</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称不可为空，只支持中文、数字、大小写字母、英文下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“_”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>及中划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“-”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，且不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'The name cannot be null; it only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
-  </si>
-  <si>
-    <t>disk_createSnapshot_i18nKey_11</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'Description cannot exceed 256 characters'</t>
-  </si>
-  <si>
-    <t>Must provide a name, only support Chinese, numbers, upper case and lower case letters, English underline “_” and  line-through “-”, with at most 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The description cannot be null and  supports Chinese characters, numbers, upper case and lower case letters, English underline “_”, and cannot exceed 256 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,6 +470,25 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,9 +510,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -852,7 +879,7 @@
     <col min="4" max="16384" width="39.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,121 +890,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D7" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A3:B6 A2 A8:B11 A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>